--- a/biology/Médecine/Polychondrite_atrophiante/Polychondrite_atrophiante.xlsx
+++ b/biology/Médecine/Polychondrite_atrophiante/Polychondrite_atrophiante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La polychondrite atrophiante, aussi désignée polychondrite chronique atrophiante ou polychondrite récidivante, est une connectivite rare, caractérisée par l'inflammation récidivante des cartilages (tels nez, oreilles, larynx, trachée) et évoluant par poussées entrecoupées d'accalmies.
-Elle survient habituellement chez l'adulte d'âge moyen, mais peut survenir à tout âge (des formes pédiatriques sont rapportées)[2]. La prédominance féminine est peu marquée.
+Elle survient habituellement chez l'adulte d'âge moyen, mais peut survenir à tout âge (des formes pédiatriques sont rapportées). La prédominance féminine est peu marquée.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Signes cliniques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les signes généraux sont rarement absents lors des poussées : fièvre, anorexie, amaigrissement.
 Le pavillon de l'oreille est le plus souvent atteint, de manière spécifique. Il existe lors des poussées une tuméfaction violacée, chaude et douloureuse, uni ou bilatérale. Le lobule, non cartilagineux, est indemne. La maladie peut évoluer vers le stade d'atrophie cartilagineuse, donnant un lobe lisse et flasque.
-Le nez est aussi souvent enflammé, tuméfié, et au stade d'atrophie déformé « en selle » ou en « pied de marmite »[3], déformation perceptible chez l'acteur Michel Serrault[4].
+Le nez est aussi souvent enflammé, tuméfié, et au stade d'atrophie déformé « en selle » ou en « pied de marmite », déformation perceptible chez l'acteur Michel Serrault.
 L'arbre respiratoire est moins souvent atteint, mais la trachéobronchite peut être sévère. L'atteinte du larynx donne une aphonie et une toux caractéristique. Il existe une dyspnée obstructive qui peut déboucher sur une insuffisance respiratoire aiguë sévère.
 Les cartilages costaux enflammés donnent des douleurs pariétales responsables d'errances diagnostiques.
 Les articulations peuvent être touchées, indépendamment des poussées. Arthrites non destructrices, de topographie et d'évolution inhabituelles.
@@ -553,10 +567,12 @@
           <t>Signes biologiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Un grand syndrome inflammatoire accompagne habituellement les poussées.
-Il n'y a pas en général d'anticorps antinucléaires, mais il peut y avoir un facteur rhumatoïde, qui ne doit pas nous égarer vers une polyarthrite rhumatoïde. Des anticorps anti-collagène de type 2 peuvent être retrouvés[5].
+Il n'y a pas en général d'anticorps antinucléaires, mais il peut y avoir un facteur rhumatoïde, qui ne doit pas nous égarer vers une polyarthrite rhumatoïde. Des anticorps anti-collagène de type 2 peuvent être retrouvés.
 À noter une association possible, non fortuite, à un tableau de dysmyélopoïèse avec anémie.
 </t>
         </is>
@@ -586,12 +602,14 @@
           <t>Difficultés diagnostiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La méconnaissance de la maladie et de sa symptomatologie est à l'origine de la plupart des retards de diagnostic de cette affection dont l'abord est essentiellement clinique.
 Le seul diagnostic différentiel à envisager en théorie est celui de la granulomatose de Wegener, mais il y a alors des ANCA positifs.
-La tomographie par émission de positons au 18F-FDG (fluorodesoxyglucose marqué au fluor 18) permet de visualiser des hyperfixations au niveau des différents cartilages[6].
-La biopsie n'apporte pas d'élément diagnostic décisionnel[3].
+La tomographie par émission de positons au 18F-FDG (fluorodesoxyglucose marqué au fluor 18) permet de visualiser des hyperfixations au niveau des différents cartilages.
+La biopsie n'apporte pas d'élément diagnostic décisionnel.
 </t>
         </is>
       </c>
@@ -620,7 +638,9 @@
           <t>Pronostic et évolution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La fréquence et la sévérité des poussées est extrêmement variable.
 Malgré l'efficacité certaine du traitement, la maladie reste sévère sur le plan de la gêne fonctionnelle et de la mortalité.
@@ -652,9 +672,11 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En dehors des traitements symptomatiques, la thérapeutique de fond est basée sur la corticothérapie et l'utilisation des immunosuppresseurs[3]. À noter l'efficacité variable des perfusions d'immunoglobulines et des plasmaphérèses.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En dehors des traitements symptomatiques, la thérapeutique de fond est basée sur la corticothérapie et l'utilisation des immunosuppresseurs. À noter l'efficacité variable des perfusions d'immunoglobulines et des plasmaphérèses.
 </t>
         </is>
       </c>
